--- a/modello_on_line_vuoto.xlsx
+++ b/modello_on_line_vuoto.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1866">
   <si>
     <t>Capitolo 1 – Funzioni mentali</t>
   </si>
@@ -7859,6 +7859,12 @@
   </si>
   <si>
     <t>ALTRO</t>
+  </si>
+  <si>
+    <t>e570 Servizi, sistemi e politiche previdenziali / assistenziali</t>
+  </si>
+  <si>
+    <t>e150 Prodotti e tecnologia per la progettazione e la costruzione di edifici per il pubblico utilizzo</t>
   </si>
 </sst>
 </file>
@@ -8601,7 +8607,7 @@
   <dimension ref="A1:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9696,9 +9702,9 @@
       <c r="N54" s="42"/>
       <c r="O54" s="42"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="30">
       <c r="A55" s="52" t="s">
-        <v>379</v>
+        <v>1865</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -9772,7 +9778,7 @@
       <c r="N58" s="42"/>
       <c r="O58" s="42"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="30">
       <c r="A59" s="52" t="s">
         <v>416</v>
       </c>
@@ -9848,7 +9854,7 @@
       <c r="N62" s="42"/>
       <c r="O62" s="42"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="30">
       <c r="A63" s="52" t="s">
         <v>433</v>
       </c>
@@ -9886,9 +9892,9 @@
       <c r="N64" s="42"/>
       <c r="O64" s="42"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="30">
       <c r="A65" s="52" t="s">
-        <v>444</v>
+        <v>1864</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -9924,7 +9930,7 @@
       <c r="N66" s="42"/>
       <c r="O66" s="42"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="30">
       <c r="A67" s="52" t="s">
         <v>447</v>
       </c>
